--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_13_25.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_13_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1495553.644732495</v>
+        <v>1493218.533530515</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283195</v>
+        <v>416855.1052283193</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>56.91750123718697</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>243.3503759364305</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
@@ -713,19 +713,19 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>112.3581576295182</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.781160222249223</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
@@ -877,13 +877,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>360.3655810012718</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>59.48550737293719</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,13 +950,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1066,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>192.3214698942827</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>152.5449695980481</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>224.2131267027227</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>41.41379075544808</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1184,22 +1184,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1300,13 +1300,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>1.89717711244712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1351,13 +1351,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>31.83188548727787</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,19 +1531,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>109.8058856274581</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>27.77749086859529</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1901,7 +1901,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2002,10 +2002,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>95.12712756824166</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833636</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016463</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2245,19 +2245,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>9.146142788179397</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>7.155999212081841</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>103.1686991936184</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520957</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2713,10 +2713,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>28.75188085812011</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0.8253826161906772</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2953,10 +2953,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>100.2041656279966</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>111.5512144998717</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3667,16 +3667,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>102.1557845699797</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3721,10 +3721,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>229.2938944146451</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890389</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>104.8913819999787</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>19.91555826189108</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1452.155307492516</v>
+        <v>1270.784773191979</v>
       </c>
       <c r="C2" t="n">
-        <v>1083.192790552104</v>
+        <v>901.8222562515671</v>
       </c>
       <c r="D2" t="n">
-        <v>1083.192790552104</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>1083.192790552104</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
         <v>837.3843300102556</v>
@@ -4331,10 +4331,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4361,19 +4361,19 @@
         <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.89447953245</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V2" t="n">
-        <v>2228.89447953245</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2228.89447953245</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X2" t="n">
-        <v>2228.89447953245</v>
+        <v>1270.784773191979</v>
       </c>
       <c r="Y2" t="n">
-        <v>1838.755147556638</v>
+        <v>1270.784773191979</v>
       </c>
     </row>
     <row r="3">
@@ -4398,37 +4398,37 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I3" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L3" t="n">
-        <v>777.6069060507741</v>
+        <v>1057.327935297104</v>
       </c>
       <c r="M3" t="n">
-        <v>1140.868925009994</v>
+        <v>1420.589954256325</v>
       </c>
       <c r="N3" t="n">
-        <v>1528.154053606939</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O3" t="n">
-        <v>1860.224488783101</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.04593830764878</v>
+        <v>270.5950217532746</v>
       </c>
       <c r="C4" t="n">
-        <v>53.04593830764878</v>
+        <v>270.5950217532746</v>
       </c>
       <c r="D4" t="n">
-        <v>53.04593830764878</v>
+        <v>270.5950217532746</v>
       </c>
       <c r="E4" t="n">
-        <v>53.04593830764878</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="F4" t="n">
-        <v>53.04593830764878</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
         <v>51.2467865680031</v>
@@ -4510,28 +4510,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.23396574994</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>825.1371474485136</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="V4" t="n">
-        <v>570.4526592426267</v>
+        <v>673.0360657270445</v>
       </c>
       <c r="W4" t="n">
-        <v>281.0354892056661</v>
+        <v>673.0360657270445</v>
       </c>
       <c r="X4" t="n">
-        <v>53.04593830764878</v>
+        <v>673.0360657270445</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.04593830764878</v>
+        <v>452.2434865835144</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2051.040280862503</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="C5" t="n">
-        <v>1682.077763922091</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="D5" t="n">
-        <v>1323.812065315341</v>
+        <v>1141.961818970369</v>
       </c>
       <c r="E5" t="n">
-        <v>938.0238127170967</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="F5" t="n">
-        <v>527.0379079274892</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G5" t="n">
-        <v>111.333157651778</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
-        <v>111.333157651778</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816082</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872914</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4598,19 +4598,19 @@
         <v>2437.640120926625</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926625</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V5" t="n">
-        <v>2437.640120926625</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W5" t="n">
-        <v>2437.640120926625</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="X5" t="n">
-        <v>2437.640120926625</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="Y5" t="n">
-        <v>2437.640120926625</v>
+        <v>1500.22751757712</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4620,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>590.2049751143495</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L6" t="n">
-        <v>884.9085321458213</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M6" t="n">
-        <v>1248.170551105041</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N6" t="n">
-        <v>1635.455679701987</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O6" t="n">
-        <v>1967.526114878148</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710445</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>388.1694341876314</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="C7" t="n">
-        <v>219.2332512597245</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="D7" t="n">
-        <v>219.2332512597245</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="E7" t="n">
-        <v>219.2332512597245</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F7" t="n">
-        <v>219.2332512597245</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
         <v>51.2467865680031</v>
@@ -4723,7 +4723,7 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4738,37 +4738,37 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T7" t="n">
-        <v>1442.182009070171</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>1153.063671574009</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V7" t="n">
-        <v>898.3791833681221</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="W7" t="n">
-        <v>608.9620133311615</v>
+        <v>535.7199774115529</v>
       </c>
       <c r="X7" t="n">
-        <v>608.9620133311615</v>
+        <v>535.7199774115529</v>
       </c>
       <c r="Y7" t="n">
-        <v>388.1694341876314</v>
+        <v>381.6341495347366</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1685.375546116518</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1316.413029176106</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>958.147330569356</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>572.3590779711117</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>565.4135772219082</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>150.3411270669047</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4802,10 +4802,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4817,7 +4817,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410103</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2961.784676410103</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2961.784676410103</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2961.784676410103</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y8" t="n">
-        <v>2571.645344434291</v>
+        <v>2071.97538618064</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4884,37 +4884,37 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>681.6115596545848</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>512.6753767266779</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>362.5587373143421</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>214.645643731949</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>214.645643731949</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H10" t="n">
         <v>66.51211643218343</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621296</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="W10" t="n">
-        <v>848.0708164780106</v>
+        <v>902.4041387981149</v>
       </c>
       <c r="X10" t="n">
-        <v>848.0708164780106</v>
+        <v>902.4041387981149</v>
       </c>
       <c r="Y10" t="n">
-        <v>848.0708164780106</v>
+        <v>681.6115596545848</v>
       </c>
     </row>
     <row r="11">
@@ -5036,19 +5036,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>985.7836617409695</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>816.8474788130626</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>666.7308394007268</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>518.8177458183337</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>371.9277983204233</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G13" t="n">
-        <v>204.7316990353033</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5197,52 +5197,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2160.315914855604</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1905.631426649717</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1616.214256612757</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1388.224705714739</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1167.432126571209</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5258,67 +5258,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637307</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>580.8993044876693</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>430.7826650753335</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5531,7 +5531,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,13 +5592,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M18" t="n">
         <v>716.6687843969308</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121625</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998268</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998268</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998268</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>194.8007783998268</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="20">
@@ -5741,13 +5741,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5759,13 +5759,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5832,25 +5832,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>411.9631215597619</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F22" t="n">
-        <v>411.9631215597619</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G22" t="n">
-        <v>244.7670222746419</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>103.0551911168399</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5969,25 +5969,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>808.8888553856862</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C25" t="n">
-        <v>639.9526724577793</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="D25" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>990.5373202159259</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="26">
@@ -6200,16 +6200,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429802</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797186</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.129363765926</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="29">
@@ -6443,37 +6443,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6537,19 +6537,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273903</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L30" t="n">
-        <v>95.58405025273903</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>692.9625378792909</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
         <v>1307.627092998424</v>
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282753</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E31" t="n">
         <v>240.7066105458822</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6686,16 +6686,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>95.58405025273903</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M33" t="n">
-        <v>692.9625378792909</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6898,10 +6898,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,52 +6911,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>119.290296770379</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7166,25 +7166,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,28 +7193,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,10 +7245,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7260,19 +7260,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400695</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121626</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121626</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>197.0043242297695</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7336,46 +7336,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797706</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279799</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832659</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487564</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510505</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854702</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648815</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138394</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703092</v>
       </c>
     </row>
     <row r="41">
@@ -7406,31 +7406,31 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -8055,31 +8055,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>186.449012614385</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>60.50016306149558</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>168.7434581780641</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,13 +8310,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>54.95314511566545</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>30.48882721876578</v>
+        <v>37.12601365260461</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>118.6564717779739</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23890,10 +23890,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>72.11969353038617</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>40.32043864788753</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>72.11969353038614</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24221,7 +24221,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>141.4594738061305</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>43.26526345295079</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24452,7 +24452,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24601,10 +24601,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856948</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>65.54986409393101</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24692,7 +24692,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24841,10 +24841,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>125.5054897610405</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25202,7 +25202,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>114.1584408891654</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25555,16 +25555,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345295159</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>57.22910392194592</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>41.54258064659051</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.45968844823058</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>915969.1961964172</v>
+        <v>915969.1961964171</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>915969.1961964172</v>
+        <v>915969.196196417</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>915969.1961964172</v>
+        <v>915969.1961964171</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>915969.1961964172</v>
+        <v>915969.1961964171</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>915969.1961964172</v>
+        <v>915969.196196417</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>915969.1961964172</v>
+        <v>915969.196196417</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>915969.1961964173</v>
+        <v>915969.1961964171</v>
       </c>
     </row>
     <row r="14">
@@ -26314,22 +26314,22 @@
         <v>513151.1061651771</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651772</v>
+        <v>513151.106165177</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="F2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062535</v>
       </c>
       <c r="G2" t="n">
         <v>504466.6248062538</v>
       </c>
       <c r="H2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="I2" t="n">
         <v>504466.6248062536</v>
@@ -26338,13 +26338,13 @@
         <v>504466.6248062538</v>
       </c>
       <c r="K2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="L2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062539</v>
       </c>
       <c r="M2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="N2" t="n">
         <v>504466.6248062536</v>
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403379</v>
+        <v>192627.140440338</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>48293.9700081908</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>135522.1369769831</v>
+        <v>135522.1369769832</v>
       </c>
       <c r="C4" t="n">
         <v>135522.1369769832</v>
@@ -26424,25 +26424,25 @@
         <v>87914.29116309555</v>
       </c>
       <c r="E4" t="n">
+        <v>8727.256391744282</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8727.256391744282</v>
+      </c>
+      <c r="G4" t="n">
         <v>8727.256391744284</v>
-      </c>
-      <c r="F4" t="n">
-        <v>8727.256391744284</v>
-      </c>
-      <c r="G4" t="n">
-        <v>8727.256391744282</v>
       </c>
       <c r="H4" t="n">
         <v>8727.256391744284</v>
       </c>
       <c r="I4" t="n">
+        <v>8727.256391744295</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8727.256391744282</v>
+      </c>
+      <c r="K4" t="n">
         <v>8727.256391744284</v>
-      </c>
-      <c r="J4" t="n">
-        <v>8727.256391744284</v>
-      </c>
-      <c r="K4" t="n">
-        <v>8727.256391744282</v>
       </c>
       <c r="L4" t="n">
         <v>8727.256391744282</v>
@@ -26454,10 +26454,10 @@
         <v>8727.256391744282</v>
       </c>
       <c r="O4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="P4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744284</v>
       </c>
     </row>
     <row r="5">
@@ -26522,46 +26522,46 @@
         <v>-830060.5868275701</v>
       </c>
       <c r="C6" t="n">
-        <v>284691.1967483493</v>
+        <v>284691.1967483491</v>
       </c>
       <c r="D6" t="n">
-        <v>124675.7340003503</v>
+        <v>124675.7340003501</v>
       </c>
       <c r="E6" t="n">
-        <v>69204.37678324703</v>
+        <v>69169.63885781157</v>
       </c>
       <c r="F6" t="n">
-        <v>394616.8385906024</v>
+        <v>394582.1006651664</v>
       </c>
       <c r="G6" t="n">
-        <v>394616.8385906026</v>
+        <v>394582.1006651667</v>
       </c>
       <c r="H6" t="n">
-        <v>394616.8385906023</v>
+        <v>394582.1006651665</v>
       </c>
       <c r="I6" t="n">
-        <v>394616.8385906022</v>
+        <v>394582.1006651665</v>
       </c>
       <c r="J6" t="n">
-        <v>227011.6607806199</v>
+        <v>226976.9228551842</v>
       </c>
       <c r="K6" t="n">
-        <v>394616.8385906022</v>
+        <v>394582.1006651666</v>
       </c>
       <c r="L6" t="n">
-        <v>346322.8685824116</v>
+        <v>346288.130656976</v>
       </c>
       <c r="M6" t="n">
-        <v>309561.8106550906</v>
+        <v>309527.0727296548</v>
       </c>
       <c r="N6" t="n">
-        <v>394616.8385906023</v>
+        <v>394582.1006651665</v>
       </c>
       <c r="O6" t="n">
-        <v>394616.8385906023</v>
+        <v>394582.1006651665</v>
       </c>
       <c r="P6" t="n">
-        <v>394616.8385906023</v>
+        <v>394582.1006651666</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26738,7 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26799,7 +26799,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757591</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>190.8166233022541</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>297.765540383496</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>163.525669805281</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,19 +27543,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>34.07580501705097</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>164.525439822555</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27597,13 +27597,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>21.56478907099</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>6.224405299533309</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,13 +27670,13 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27786,10 +27786,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>28.42722610292924</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>66.03968375404665</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>158.5207149607579</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>253.1939736318724</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28020,13 +28020,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.1286311465811</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>254.6911128493131</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29451,7 +29451,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>-2.419498242208011e-12</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30408,7 +30408,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>-1.487508428269215e-12</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -31279,43 +31279,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,7 +31370,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31379,25 +31379,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31470,13 +31470,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>508.374771698973</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,16 +32312,16 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>616.5397119226058</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32552,10 +32552,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319853</v>
+        <v>688.8020111197787</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,34 +32783,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>714.932815742495</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,16 +33020,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>194.5189324111251</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319853</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,22 +33257,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>249.1672590991333</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>752.2150000824579</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33427,7 +33427,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
         <v>981.2715114159425</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>126.8376266666667</v>
@@ -33503,25 +33503,25 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>752.2150000824579</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>653.3850396373771</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33676,7 +33676,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33731,16 +33731,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>164.2853229338208</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,16 +33749,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>454.8099857531869</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33980,22 +33980,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>613.2529048371032</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>452.8027404478645</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>452.3405299254384</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>484.1293732522352</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>451.6972626543695</v>
       </c>
       <c r="O3" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>355.3309544215489</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35030,13 +35030,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>304.6326742391977</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35103,7 +35103,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35112,7 +35112,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>369.8203919190988</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35960,16 +35960,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -36200,10 +36200,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875408</v>
+        <v>546.2057666753343</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>572.7987818204766</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,16 +36668,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>55.9645526312509</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,22 +36905,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>620.8732879991246</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -37075,7 +37075,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>620.8732879991246</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>510.7887951929326</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37324,7 +37324,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37379,16 +37379,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>25.73094315394658</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,16 +37397,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>320.8355783388566</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37628,22 +37628,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>471.1188709150848</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37704,7 +37704,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191277</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
         <v>426.2724270010451</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>310.2064960034201</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>310.2064960034201</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
